--- a/Data/in/ADP_added_Retro_ACC_PAG.xlsx
+++ b/Data/in/ADP_added_Retro_ACC_PAG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Mario\Gini\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25449C12-3AC0-4D60-998C-7C617D023E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA076B2-128E-4186-90ED-F67542C56D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Label</t>
   </si>
@@ -185,9 +185,6 @@
     <t>t23</t>
   </si>
   <si>
-    <t>t45</t>
-  </si>
-  <si>
     <t>m4_ACC-dlPAG</t>
   </si>
   <si>
@@ -222,6 +219,36 @@
   </si>
   <si>
     <t>ADP</t>
+  </si>
+  <si>
+    <t>1 AP</t>
+  </si>
+  <si>
+    <t>2 AP</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>m1_Sal_d15_ipsiACC</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>m2_Sal_d15_ipsiACC</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t31</t>
+  </si>
+  <si>
+    <t>t36</t>
+  </si>
+  <si>
+    <t>t3</t>
   </si>
 </sst>
 </file>
@@ -280,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,6 +330,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27D14E-5218-4C12-A051-D8A9399440F5}">
-  <dimension ref="A1:AR31"/>
+  <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +767,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -874,7 +906,9 @@
       <c r="AJ3" s="14">
         <v>7.3</v>
       </c>
-      <c r="AK3" s="8"/>
+      <c r="AK3" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
@@ -1095,8 +1129,12 @@
       <c r="AH5" s="1">
         <v>129.03225806451613</v>
       </c>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="9"/>
+      <c r="AJ5" s="15">
+        <v>6.8952</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
@@ -1314,7 +1352,9 @@
       <c r="AJ7" s="11">
         <v>8.4239999999999995</v>
       </c>
-      <c r="AK7" s="9"/>
+      <c r="AK7" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
@@ -1426,7 +1466,9 @@
       <c r="AJ8" s="12">
         <v>8.2368000000000006</v>
       </c>
-      <c r="AK8" s="10"/>
+      <c r="AK8" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
       <c r="AN8" s="10"/>
@@ -1762,7 +1804,9 @@
       <c r="AJ11" s="12">
         <v>5.7408000000000001</v>
       </c>
-      <c r="AK11" s="10"/>
+      <c r="AK11" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
@@ -2224,7 +2268,7 @@
         <v>211208</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2336,7 +2380,7 @@
         <v>211208</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -2440,112 +2484,116 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
     </row>
-    <row r="18" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="16">
         <v>211214</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="16">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="16">
         <v>549.17899999999997</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="16">
         <v>448.66699999999997</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="16">
         <v>0.86599999999999999</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="16">
         <v>54.966999999999999</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="16">
         <v>195.54400000000001</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="16">
         <v>2.4689999999999999</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="16">
         <v>11.927</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="16">
         <v>169.31899999999999</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="16">
         <v>95.572000000000003</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="16">
         <v>6</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="16">
         <v>418.75299999999999</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="16">
         <v>117.581</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="16">
         <v>58.008000000000003</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="16">
         <v>5</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="16">
         <v>9</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="16">
         <v>1.0903179594803238</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="16">
         <v>3.9000015258789063</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="16">
         <v>141.33599344889322</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="16">
         <v>-60.933598327636716</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="16">
         <v>1.5822894382049881</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="16">
         <v>32.497838930464667</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="16">
         <v>0.40428571428571425</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="16">
         <v>106.14239578247071</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="16">
         <v>1.1797852560458759</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="16">
         <v>272.43840026855469</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18" s="16">
         <v>75.753599166870117</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="16">
         <v>147.23926380368098</v>
       </c>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
+      <c r="AJ18" s="17">
+        <v>7.1135999999999999</v>
+      </c>
+      <c r="AK18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
     </row>
     <row r="19" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2561,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
         <v>477.61799999999999</v>
@@ -2776,7 +2824,7 @@
         <v>220220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2885,13 +2933,13 @@
         <v>220220</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1">
         <v>468.54500000000002</v>
@@ -2994,7 +3042,7 @@
         <v>220220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -3106,7 +3154,7 @@
         <v>211115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -3218,13 +3266,13 @@
         <v>211115</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="4">
         <v>382.791</v>
@@ -3327,7 +3375,7 @@
         <v>211216</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
@@ -3439,13 +3487,13 @@
         <v>211216</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="4">
         <v>326.55399999999997</v>
@@ -3548,13 +3596,13 @@
         <v>211217</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="4">
         <v>306.108</v>
@@ -3657,7 +3705,7 @@
         <v>211217</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3766,13 +3814,13 @@
         <v>211217</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="4">
         <v>419.91899999999998</v>
@@ -3868,6 +3916,108 @@
       <c r="AR30" s="9"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19">
+        <v>230516</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="19">
+        <v>488.51799999999997</v>
+      </c>
+      <c r="G31" s="19">
+        <v>285.88</v>
+      </c>
+      <c r="H31" s="19">
+        <v>7.2450000000000001</v>
+      </c>
+      <c r="I31" s="19">
+        <v>49.764000000000003</v>
+      </c>
+      <c r="J31" s="19">
+        <v>137.768</v>
+      </c>
+      <c r="K31" s="19">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="L31" s="19">
+        <v>9.5860000000000003</v>
+      </c>
+      <c r="M31" s="19">
+        <v>229.46899999999999</v>
+      </c>
+      <c r="N31" s="19">
+        <v>126.491</v>
+      </c>
+      <c r="O31" s="19">
+        <v>5</v>
+      </c>
+      <c r="P31" s="19">
+        <v>305.01499999999999</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>172.86099999999999</v>
+      </c>
+      <c r="R31" s="19">
+        <v>29.152999999999999</v>
+      </c>
+      <c r="S31" s="19">
+        <v>4</v>
+      </c>
+      <c r="T31" s="19">
+        <v>7</v>
+      </c>
+      <c r="U31" s="20">
+        <v>1.0156867210790099</v>
+      </c>
+      <c r="V31" s="20">
+        <v>1.372802734375</v>
+      </c>
+      <c r="W31" s="20">
+        <v>81.085591634114607</v>
+      </c>
+      <c r="X31" s="20">
+        <v>-66.739918518066403</v>
+      </c>
+      <c r="Y31" s="20">
+        <v>734.01078086576638</v>
+      </c>
+      <c r="Z31" s="20">
+        <v>14.598550492505685</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="20">
+        <v>110.63831787109376</v>
+      </c>
+      <c r="AD31" s="20">
+        <v>1.1524261134964888</v>
+      </c>
+      <c r="AE31" s="20">
+        <v>204.54719924926758</v>
+      </c>
+      <c r="AF31" s="20">
+        <v>81.993598937988281</v>
+      </c>
+      <c r="AG31" s="20">
+        <v>4.3367996215820313</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19">
+        <v>0.43081000000000003</v>
+      </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
@@ -3877,6 +4027,936 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
     </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="19">
+        <v>230516</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="19">
+        <v>455.60300000000001</v>
+      </c>
+      <c r="G32" s="19">
+        <v>270.37700000000001</v>
+      </c>
+      <c r="H32" s="19">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="I32" s="19">
+        <v>50.131</v>
+      </c>
+      <c r="J32" s="19">
+        <v>154.56700000000001</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="L32" s="19">
+        <v>13.491</v>
+      </c>
+      <c r="M32" s="19">
+        <v>109.56699999999999</v>
+      </c>
+      <c r="N32" s="19">
+        <v>148.369</v>
+      </c>
+      <c r="O32" s="19">
+        <v>6</v>
+      </c>
+      <c r="P32" s="19">
+        <v>179.21</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>168.73599999999999</v>
+      </c>
+      <c r="R32" s="19">
+        <v>27.901</v>
+      </c>
+      <c r="S32" s="19">
+        <v>5</v>
+      </c>
+      <c r="T32" s="19">
+        <v>5</v>
+      </c>
+      <c r="U32" s="20">
+        <v>1.0798209105468399</v>
+      </c>
+      <c r="V32" s="20">
+        <v>3.3384017944335938</v>
+      </c>
+      <c r="W32" s="20">
+        <v>21.455201466878243</v>
+      </c>
+      <c r="X32" s="20">
+        <v>-61.579438400268558</v>
+      </c>
+      <c r="Y32" s="20">
+        <v>178.02064383377206</v>
+      </c>
+      <c r="Z32" s="20">
+        <v>28.064124724547373</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="20">
+        <v>100.39223594665526</v>
+      </c>
+      <c r="AD32" s="20">
+        <v>0.96640296866911513</v>
+      </c>
+      <c r="AE32" s="20">
+        <v>233.87519073486328</v>
+      </c>
+      <c r="AF32" s="20">
+        <v>89.855995178222656</v>
+      </c>
+      <c r="AG32" s="20">
+        <v>1.1400032043457</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="20">
+        <v>1.2791999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="19">
+        <v>230516</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="19">
+        <v>462.93599999999998</v>
+      </c>
+      <c r="G33" s="19">
+        <v>264.15300000000002</v>
+      </c>
+      <c r="H33" s="19">
+        <v>16.321999999999999</v>
+      </c>
+      <c r="I33" s="19">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="J33" s="19">
+        <v>139.97499999999999</v>
+      </c>
+      <c r="K33" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="L33" s="19">
+        <v>11.109</v>
+      </c>
+      <c r="M33" s="19">
+        <v>114.633</v>
+      </c>
+      <c r="N33" s="19">
+        <v>93.808000000000007</v>
+      </c>
+      <c r="O33" s="19">
+        <v>4</v>
+      </c>
+      <c r="P33" s="19">
+        <v>200.19900000000001</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>145.417</v>
+      </c>
+      <c r="R33" s="19">
+        <v>28.782</v>
+      </c>
+      <c r="S33" s="19">
+        <v>3</v>
+      </c>
+      <c r="T33" s="19">
+        <v>4</v>
+      </c>
+      <c r="U33" s="20">
+        <v>1.1000007722067351</v>
+      </c>
+      <c r="V33" s="20">
+        <v>0.592803955078125</v>
+      </c>
+      <c r="W33" s="20">
+        <v>20.872787475585945</v>
+      </c>
+      <c r="X33" s="20">
+        <v>-66.683758544921872</v>
+      </c>
+      <c r="Y33" s="20">
+        <v>725.17940791155434</v>
+      </c>
+      <c r="Z33" s="20">
+        <v>10.95783049103898</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="20">
+        <v>103.31255798339845</v>
+      </c>
+      <c r="AD33" s="20">
+        <v>1.3988190451550651</v>
+      </c>
+      <c r="AE33" s="20">
+        <v>171.10079193115234</v>
+      </c>
+      <c r="AF33" s="20">
+        <v>67.142398834228516</v>
+      </c>
+      <c r="AG33" s="20">
+        <v>4.5551986694335938</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="20">
+        <v>0.87360000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="19">
+        <v>230516</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="19">
+        <v>448.75799999999998</v>
+      </c>
+      <c r="G34" s="19">
+        <v>249.99299999999999</v>
+      </c>
+      <c r="H34" s="19">
+        <v>8.5150000000000006</v>
+      </c>
+      <c r="I34" s="19">
+        <v>45.253</v>
+      </c>
+      <c r="J34" s="19">
+        <v>139.559</v>
+      </c>
+      <c r="K34" s="19">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="L34" s="19">
+        <v>10.476000000000001</v>
+      </c>
+      <c r="M34" s="19">
+        <v>101.542</v>
+      </c>
+      <c r="N34" s="19">
+        <v>62.819000000000003</v>
+      </c>
+      <c r="O34" s="19">
+        <v>4</v>
+      </c>
+      <c r="P34" s="19">
+        <v>218.96600000000001</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>161.71199999999999</v>
+      </c>
+      <c r="R34" s="19">
+        <v>22.1</v>
+      </c>
+      <c r="S34" s="19">
+        <v>3</v>
+      </c>
+      <c r="T34" s="19">
+        <v>6</v>
+      </c>
+      <c r="U34" s="20">
+        <v>1.1091946753911104</v>
+      </c>
+      <c r="V34" s="20">
+        <v>0.59279632568359375</v>
+      </c>
+      <c r="W34" s="20">
+        <v>12.46960957845052</v>
+      </c>
+      <c r="X34" s="20">
+        <v>-60.967918395996094</v>
+      </c>
+      <c r="Y34" s="20">
+        <v>296.45416940880352</v>
+      </c>
+      <c r="Z34" s="20">
+        <v>10.0092573819168</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="20">
+        <v>90.420717239379883</v>
+      </c>
+      <c r="AD34" s="20">
+        <v>0.99890532531570386</v>
+      </c>
+      <c r="AE34" s="20">
+        <v>179.33759307861328</v>
+      </c>
+      <c r="AF34" s="20">
+        <v>80.870397567749023</v>
+      </c>
+      <c r="AG34" s="20">
+        <v>3.61920166015625</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="20">
+        <v>0.12479999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="19">
+        <v>230517</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="19">
+        <v>463.50900000000001</v>
+      </c>
+      <c r="G35" s="19">
+        <v>287.42</v>
+      </c>
+      <c r="H35" s="19">
+        <v>10.898999999999999</v>
+      </c>
+      <c r="I35" s="19">
+        <v>48.51</v>
+      </c>
+      <c r="J35" s="19">
+        <v>167.988</v>
+      </c>
+      <c r="K35" s="19">
+        <v>2.411</v>
+      </c>
+      <c r="L35" s="19">
+        <v>11.862</v>
+      </c>
+      <c r="M35" s="19">
+        <v>138.255</v>
+      </c>
+      <c r="N35" s="19">
+        <v>92.156000000000006</v>
+      </c>
+      <c r="O35" s="19">
+        <v>4</v>
+      </c>
+      <c r="P35" s="19">
+        <v>146.75200000000001</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>143.41</v>
+      </c>
+      <c r="R35" s="19">
+        <v>32.921999999999997</v>
+      </c>
+      <c r="S35" s="19">
+        <v>2</v>
+      </c>
+      <c r="T35" s="19">
+        <v>5</v>
+      </c>
+      <c r="U35" s="20">
+        <v>1.087248670938773</v>
+      </c>
+      <c r="V35" s="20">
+        <v>1.2168045043945313</v>
+      </c>
+      <c r="W35" s="19">
+        <v>33.654396057128885</v>
+      </c>
+      <c r="X35" s="19">
+        <v>-68.215677642822271</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>280.19009318985172</v>
+      </c>
+      <c r="Z35" s="19">
+        <v>28.358970315624227</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19">
+        <v>115.85807647705079</v>
+      </c>
+      <c r="AD35" s="19">
+        <v>1.3819744675938068</v>
+      </c>
+      <c r="AE35" s="19">
+        <v>225.51359558105469</v>
+      </c>
+      <c r="AF35" s="19">
+        <v>59.654396057128906</v>
+      </c>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>0</v>
+      </c>
+      <c r="B36" s="19">
+        <v>230517</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="19">
+        <v>385.11700000000002</v>
+      </c>
+      <c r="G36" s="19">
+        <v>219.255</v>
+      </c>
+      <c r="H36" s="19">
+        <v>3.95</v>
+      </c>
+      <c r="I36" s="19">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J36" s="19">
+        <v>181.38399999999999</v>
+      </c>
+      <c r="K36" s="19">
+        <v>2.077</v>
+      </c>
+      <c r="L36" s="19">
+        <v>11.942</v>
+      </c>
+      <c r="M36" s="19">
+        <v>141.62</v>
+      </c>
+      <c r="N36" s="19">
+        <v>122.70399999999999</v>
+      </c>
+      <c r="O36" s="19">
+        <v>6</v>
+      </c>
+      <c r="P36" s="19">
+        <v>84.180999999999997</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>157.97499999999999</v>
+      </c>
+      <c r="R36" s="19">
+        <v>35.323</v>
+      </c>
+      <c r="S36" s="19">
+        <v>4</v>
+      </c>
+      <c r="T36" s="19">
+        <v>7</v>
+      </c>
+      <c r="U36" s="20">
+        <v>1.2238798071483579</v>
+      </c>
+      <c r="V36" s="20">
+        <v>1.8719940185546875</v>
+      </c>
+      <c r="W36" s="20">
+        <v>30.8568115234375</v>
+      </c>
+      <c r="X36" s="20">
+        <v>-61.878958129882811</v>
+      </c>
+      <c r="Y36" s="20">
+        <v>148.55611539047482</v>
+      </c>
+      <c r="Z36" s="20">
+        <v>34.398840828848918</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="20">
+        <v>113.76455535888672</v>
+      </c>
+      <c r="AD36" s="20">
+        <v>0.95222826860390342</v>
+      </c>
+      <c r="AE36" s="20">
+        <v>297.14878845214844</v>
+      </c>
+      <c r="AF36" s="20">
+        <v>86.985597133636475</v>
+      </c>
+      <c r="AG36" s="20">
+        <v>0.75872689938398363</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="20">
+        <v>1.1544000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>0</v>
+      </c>
+      <c r="B37" s="19">
+        <v>230517</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="19">
+        <v>491.916</v>
+      </c>
+      <c r="G37" s="19">
+        <v>315.81799999999998</v>
+      </c>
+      <c r="H37" s="19">
+        <v>18.914000000000001</v>
+      </c>
+      <c r="I37" s="19">
+        <v>50.210999999999999</v>
+      </c>
+      <c r="J37" s="19">
+        <v>151.22300000000001</v>
+      </c>
+      <c r="K37" s="19">
+        <v>2.137</v>
+      </c>
+      <c r="L37" s="19">
+        <v>13.134</v>
+      </c>
+      <c r="M37" s="19">
+        <v>201.89400000000001</v>
+      </c>
+      <c r="N37" s="19">
+        <v>104.96899999999999</v>
+      </c>
+      <c r="O37" s="19">
+        <v>2</v>
+      </c>
+      <c r="P37" s="19">
+        <v>170.863</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>179.50800000000001</v>
+      </c>
+      <c r="R37" s="19">
+        <v>49.951000000000001</v>
+      </c>
+      <c r="S37" s="19">
+        <v>8</v>
+      </c>
+      <c r="T37" s="19">
+        <v>14</v>
+      </c>
+      <c r="U37" s="20">
+        <v>1.081280961745211</v>
+      </c>
+      <c r="V37" s="20">
+        <v>1.02960205078125</v>
+      </c>
+      <c r="W37" s="20">
+        <v>49.254391988118485</v>
+      </c>
+      <c r="X37" s="20">
+        <v>-70.181278228759766</v>
+      </c>
+      <c r="Y37" s="20">
+        <v>-165.60092913592374</v>
+      </c>
+      <c r="Z37" s="20">
+        <v>50.252262471822824</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="20">
+        <v>97.606077194213867</v>
+      </c>
+      <c r="AD37" s="20">
+        <v>2.055660764276098</v>
+      </c>
+      <c r="AE37" s="20">
+        <v>136.53119850158691</v>
+      </c>
+      <c r="AF37" s="20">
+        <v>35.443197518587112</v>
+      </c>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="20">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>0</v>
+      </c>
+      <c r="B38" s="19">
+        <v>230517</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="19">
+        <v>411.25900000000001</v>
+      </c>
+      <c r="G38" s="19">
+        <v>266.74400000000003</v>
+      </c>
+      <c r="H38" s="19">
+        <v>14.57</v>
+      </c>
+      <c r="I38" s="19">
+        <v>40.238999999999997</v>
+      </c>
+      <c r="J38" s="19">
+        <v>131.30600000000001</v>
+      </c>
+      <c r="K38" s="19">
+        <v>2.863</v>
+      </c>
+      <c r="L38" s="19">
+        <v>13.068</v>
+      </c>
+      <c r="M38" s="19">
+        <v>146.75200000000001</v>
+      </c>
+      <c r="N38" s="19">
+        <v>86.369</v>
+      </c>
+      <c r="O38" s="19">
+        <v>4</v>
+      </c>
+      <c r="P38" s="19">
+        <v>173.465</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>138.59800000000001</v>
+      </c>
+      <c r="R38" s="19">
+        <v>37.442999999999998</v>
+      </c>
+      <c r="S38" s="19">
+        <v>3</v>
+      </c>
+      <c r="T38" s="19">
+        <v>6</v>
+      </c>
+      <c r="U38" s="20">
+        <v>1.3115383313143778</v>
+      </c>
+      <c r="V38" s="20">
+        <v>2.5271987915039063</v>
+      </c>
+      <c r="W38" s="20">
+        <v>27.41440709431965</v>
+      </c>
+      <c r="X38" s="20">
+        <v>-64.877278518676761</v>
+      </c>
+      <c r="Y38" s="20">
+        <v>249.87634115508433</v>
+      </c>
+      <c r="Z38" s="20">
+        <v>34.786725186667695</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="20">
+        <v>96.295678329467762</v>
+      </c>
+      <c r="AD38" s="20">
+        <v>1.368265627645826</v>
+      </c>
+      <c r="AE38" s="20">
+        <v>174.47039794921875</v>
+      </c>
+      <c r="AF38" s="20">
+        <v>64.771199226379395</v>
+      </c>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="20">
+        <v>1.8404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>0</v>
+      </c>
+      <c r="B39" s="19">
+        <v>230517</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="19">
+        <v>386.74299999999999</v>
+      </c>
+      <c r="G39" s="19">
+        <v>283.31400000000002</v>
+      </c>
+      <c r="H39" s="19">
+        <v>23.617000000000001</v>
+      </c>
+      <c r="I39" s="19">
+        <v>47.156999999999996</v>
+      </c>
+      <c r="J39" s="19">
+        <v>146.20500000000001</v>
+      </c>
+      <c r="K39" s="19">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="L39" s="19">
+        <v>12.039</v>
+      </c>
+      <c r="M39" s="19">
+        <v>187.32300000000001</v>
+      </c>
+      <c r="N39" s="19">
+        <v>71.686000000000007</v>
+      </c>
+      <c r="O39" s="19">
+        <v>4</v>
+      </c>
+      <c r="P39" s="19">
+        <v>185.12299999999999</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>135.93</v>
+      </c>
+      <c r="R39" s="19">
+        <v>26.933</v>
+      </c>
+      <c r="S39" s="19">
+        <v>3</v>
+      </c>
+      <c r="T39" s="19">
+        <v>6</v>
+      </c>
+      <c r="U39" s="20">
+        <v>1.1737083434743276</v>
+      </c>
+      <c r="V39" s="20">
+        <v>1.1543960571289063</v>
+      </c>
+      <c r="W39" s="20">
+        <v>22.245602925618467</v>
+      </c>
+      <c r="X39" s="20">
+        <v>-78.25271835327149</v>
+      </c>
+      <c r="Y39" s="20">
+        <v>873.32677524132293</v>
+      </c>
+      <c r="Z39" s="20">
+        <v>11.763446148098266</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="20">
+        <v>110.91911926269532</v>
+      </c>
+      <c r="AD39" s="20">
+        <v>1.503601709681945</v>
+      </c>
+      <c r="AE39" s="20">
+        <v>167.98079681396484</v>
+      </c>
+      <c r="AF39" s="20">
+        <v>62.524801731109619</v>
+      </c>
+      <c r="AG39" s="20">
+        <v>4.7736015319824219</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="20">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>0</v>
+      </c>
+      <c r="B40" s="19">
+        <v>230517</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="19">
+        <v>416.77600000000001</v>
+      </c>
+      <c r="G40" s="19">
+        <v>270.72199999999998</v>
+      </c>
+      <c r="H40" s="19">
+        <v>20.803000000000001</v>
+      </c>
+      <c r="I40" s="19">
+        <v>44.854999999999997</v>
+      </c>
+      <c r="J40" s="19">
+        <v>133.267</v>
+      </c>
+      <c r="K40" s="19">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="L40" s="19">
+        <v>11.375999999999999</v>
+      </c>
+      <c r="M40" s="19">
+        <v>150.595</v>
+      </c>
+      <c r="N40" s="19">
+        <v>83.793999999999997</v>
+      </c>
+      <c r="O40" s="19">
+        <v>5</v>
+      </c>
+      <c r="P40" s="19">
+        <v>148.654</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>139.35900000000001</v>
+      </c>
+      <c r="R40" s="19">
+        <v>34.054000000000002</v>
+      </c>
+      <c r="S40" s="19">
+        <v>4</v>
+      </c>
+      <c r="T40" s="19">
+        <v>7</v>
+      </c>
+      <c r="U40" s="20">
+        <v>1.0797103182724705</v>
+      </c>
+      <c r="V40" s="20">
+        <v>0.6864013671875</v>
+      </c>
+      <c r="W40" s="20">
+        <v>28.183993021647112</v>
+      </c>
+      <c r="X40" s="20">
+        <v>-71.666399383544928</v>
+      </c>
+      <c r="Y40" s="20">
+        <v>675.98464604688286</v>
+      </c>
+      <c r="Z40" s="20">
+        <v>11.150314314311965</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="20">
+        <v>93.693598175048834</v>
+      </c>
+      <c r="AD40" s="20">
+        <v>1.3876212074342362</v>
+      </c>
+      <c r="AE40" s="20">
+        <v>137.40479469299316</v>
+      </c>
+      <c r="AF40" s="20">
+        <v>60.403200149536133</v>
+      </c>
+      <c r="AG40" s="20">
+        <v>1.466400146484375</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="20">
+        <v>1.0296000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/in/ADP_added_Retro_ACC_PAG.xlsx
+++ b/Data/in/ADP_added_Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA076B2-128E-4186-90ED-F67542C56D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10F6DD-46D7-478E-91E6-F6F57CE63882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+      <selection activeCell="A24" sqref="A24:AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4707,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="U38" s="20">
-        <v>1.3115383313143778</v>
+        <v>1.1315383313143801</v>
       </c>
       <c r="V38" s="20">
         <v>2.5271987915039063</v>
